--- a/Отчеты/OLAP по продажам ОБЩИЙ 02.12.2022 08.09.48.xlsx
+++ b/Отчеты/OLAP по продажам ОБЩИЙ 02.12.2022 08.09.48.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Project_Order\Отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2003690-ED2D-443C-9A91-838DC7DB2405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F594582-6160-48EA-8476-ACE59EF02493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OLAP по продажам ОБЩИЙ" sheetId="1" r:id="rId1"/>
+    <sheet name="OLAP отчет для Пекарни" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="119">
-  <si>
-    <t>OLAP по продажам ОБЩИЙ</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
+  <si>
+    <t>OLAP отчет для Пекарни</t>
   </si>
   <si>
     <t>Название ресторана: ИП Гордеева И. Е.</t>
   </si>
   <si>
-    <t>Период: с 01.12.2022 по 31.12.2022</t>
+    <t>Период: с 20.12.2022 по 26.12.2022</t>
   </si>
   <si>
     <t>Торговое предприятие</t>
@@ -55,15 +55,15 @@
     <t>Гранд</t>
   </si>
   <si>
+    <t>Крытый рынок</t>
+  </si>
+  <si>
     <t>Ленина</t>
   </si>
   <si>
     <t>Магазин</t>
   </si>
   <si>
-    <t>Мадонна</t>
-  </si>
-  <si>
     <t>Маркс</t>
   </si>
   <si>
@@ -73,15 +73,9 @@
     <t>Оранж</t>
   </si>
   <si>
-    <t>ПП(павильон)</t>
-  </si>
-  <si>
     <t>Рахова</t>
   </si>
   <si>
-    <t>Рокот</t>
-  </si>
-  <si>
     <t>Свобода</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>Степная</t>
   </si>
   <si>
-    <t>Тархова</t>
-  </si>
-  <si>
     <t>Трнавская</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>Фридриха 11</t>
   </si>
   <si>
-    <t>Чехова</t>
-  </si>
-  <si>
     <t>Энтузиастов</t>
   </si>
   <si>
@@ -353,18 +341,6 @@
   </si>
   <si>
     <t>Круассан с шв. шок. (лайм)</t>
-  </si>
-  <si>
-    <t>03416</t>
-  </si>
-  <si>
-    <t>Круассан мини белый шоколад</t>
-  </si>
-  <si>
-    <t>03417</t>
-  </si>
-  <si>
-    <t>Круассан мини темный шоколад</t>
   </si>
   <si>
     <t>03419</t>
@@ -492,10 +468,10 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,7 +767,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB50"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:I1"/>
@@ -806,10 +782,10 @@
     <col min="6" max="8" width="21.85546875" customWidth="1"/>
     <col min="9" max="9" width="3.42578125" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="28" width="21.85546875" customWidth="1"/>
+    <col min="11" max="24" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -822,7 +798,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -835,7 +811,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -848,12 +824,12 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -922,3277 +898,2835 @@
       <c r="X5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="2">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="G6" s="2">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="H6" s="2">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="I6" s="7">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="2">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="L6" s="2">
-        <v>7</v>
+        <v>148</v>
       </c>
       <c r="M6" s="2">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2">
-        <v>26</v>
+        <v>157</v>
       </c>
       <c r="O6" s="2">
-        <v>9</v>
-      </c>
-      <c r="P6" s="2"/>
+        <v>54</v>
+      </c>
+      <c r="P6" s="2">
+        <v>168</v>
+      </c>
       <c r="Q6" s="2">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="R6" s="2">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="S6" s="2">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="T6" s="2">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="U6" s="2">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="V6" s="2">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="W6" s="2">
-        <v>10</v>
-      </c>
-      <c r="X6" s="2">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="2">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="G7" s="2">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="H7" s="2">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="I7" s="7">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="2">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="L7" s="2">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="M7" s="2">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="N7" s="2">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="O7" s="2">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="P7" s="2">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="2">
-        <v>26</v>
+        <v>217</v>
       </c>
       <c r="R7" s="2">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="S7" s="2">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="T7" s="2">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="U7" s="2">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="V7" s="2">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="W7" s="2">
-        <v>19</v>
-      </c>
-      <c r="X7" s="2">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>25</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>9</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="X7" s="3">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="2">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="G8" s="2">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="H8" s="2">
-        <v>20</v>
+        <v>143</v>
       </c>
       <c r="I8" s="7">
-        <v>10</v>
+        <v>183</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="2">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="L8" s="2">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="M8" s="2">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="N8" s="2">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="O8" s="2">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="P8" s="2">
-        <v>13</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="2">
-        <v>30</v>
-      </c>
-      <c r="R8" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="R8" s="2">
+        <v>42</v>
+      </c>
       <c r="S8" s="2">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="T8" s="2">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="U8" s="2">
-        <v>10</v>
+        <v>126</v>
       </c>
       <c r="V8" s="2">
-        <v>2</v>
+        <v>158</v>
       </c>
       <c r="W8" s="2">
-        <v>13</v>
-      </c>
-      <c r="X8" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y8" s="2">
+        <v>168</v>
+      </c>
+      <c r="X8" s="3">
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Z8" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="2">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="H9" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="I9" s="7">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="2">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="L9" s="2">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M9" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="O9" s="2">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="P9" s="2">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="2">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="R9" s="2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="S9" s="2">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="T9" s="2">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="U9" s="2">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="V9" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2">
-        <v>14</v>
-      </c>
-      <c r="X9" s="2">
-        <v>8</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>12</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="X9" s="3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="2">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="G10" s="2">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="H10" s="2">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="I10" s="7">
-        <v>4</v>
+        <v>191</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="2">
-        <v>9</v>
-      </c>
-      <c r="L10" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="L10" s="2">
+        <v>49</v>
+      </c>
       <c r="M10" s="2">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="N10" s="2">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="O10" s="2">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="P10" s="2">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="2">
-        <v>18</v>
-      </c>
-      <c r="R10" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="R10" s="2">
+        <v>46</v>
+      </c>
       <c r="S10" s="2">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="T10" s="2">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="U10" s="2">
-        <v>10</v>
-      </c>
-      <c r="V10" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="V10" s="2">
+        <v>45</v>
+      </c>
       <c r="W10" s="2">
-        <v>4</v>
-      </c>
-      <c r="X10" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>10</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="2">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="G11" s="2">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="H11" s="2">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="I11" s="7">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="2">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="L11" s="2">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="M11" s="2">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="N11" s="2">
-        <v>24</v>
+        <v>171</v>
       </c>
       <c r="O11" s="2">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="P11" s="2">
-        <v>7</v>
+        <v>322</v>
       </c>
       <c r="Q11" s="2">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="R11" s="2">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="S11" s="2">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="T11" s="2">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="U11" s="2">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="V11" s="2">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="W11" s="2">
-        <v>18</v>
-      </c>
-      <c r="X11" s="2">
-        <v>16</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>8</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>10</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" s="7">
-        <v>17</v>
+        <v>116</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="2">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="H12" s="2">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="I12" s="7">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="2">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="L12" s="2">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="M12" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="N12" s="2">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="O12" s="2">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="P12" s="2">
-        <v>8</v>
+        <v>220</v>
       </c>
       <c r="Q12" s="2">
-        <v>30</v>
-      </c>
-      <c r="R12" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="R12" s="2">
+        <v>43</v>
+      </c>
       <c r="S12" s="2">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="T12" s="2">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="U12" s="2">
-        <v>18</v>
-      </c>
-      <c r="V12" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="V12" s="2">
+        <v>49</v>
+      </c>
       <c r="W12" s="2">
-        <v>23</v>
-      </c>
-      <c r="X12" s="2">
-        <v>18</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>7</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>9</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H13" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L13" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="M13" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" s="2">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="O13" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P13" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R13" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S13" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="T13" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U13" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V13" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W13" s="2">
-        <v>1</v>
-      </c>
-      <c r="X13" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="X13" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="2">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="G14" s="2">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="H14" s="2">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="I14" s="7">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="2">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="L14" s="2">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="M14" s="2">
+        <v>67</v>
+      </c>
+      <c r="N14" s="2">
+        <v>111</v>
+      </c>
+      <c r="O14" s="2">
+        <v>61</v>
+      </c>
+      <c r="P14" s="2">
+        <v>199</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>71</v>
+      </c>
+      <c r="R14" s="2">
+        <v>43</v>
+      </c>
+      <c r="S14" s="2">
+        <v>174</v>
+      </c>
+      <c r="T14" s="2">
+        <v>156</v>
+      </c>
+      <c r="U14" s="2">
+        <v>64</v>
+      </c>
+      <c r="V14" s="2">
+        <v>76</v>
+      </c>
+      <c r="W14" s="2">
+        <v>95</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7">
         <v>20</v>
-      </c>
-      <c r="N14" s="2">
-        <v>16</v>
-      </c>
-      <c r="O14" s="2">
-        <v>4</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2">
-        <v>30</v>
-      </c>
-      <c r="R14" s="2">
-        <v>3</v>
-      </c>
-      <c r="S14" s="2">
-        <v>15</v>
-      </c>
-      <c r="T14" s="2">
-        <v>8</v>
-      </c>
-      <c r="U14" s="2">
-        <v>19</v>
-      </c>
-      <c r="V14" s="2">
-        <v>22</v>
-      </c>
-      <c r="W14" s="2">
-        <v>23</v>
-      </c>
-      <c r="X14" s="2">
-        <v>12</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>12</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>15</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G15" s="2">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="I15" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="J15" s="7"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>21</v>
+      </c>
       <c r="L15" s="2">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="M15" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N15" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="O15" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P15" s="2">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="Q15" s="2">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="R15" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S15" s="2">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="T15" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="U15" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="V15" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="W15" s="2">
-        <v>3</v>
-      </c>
-      <c r="X15" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="X15" s="3">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2">
+        <v>23</v>
+      </c>
       <c r="G16" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H16" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I16" s="7">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J16" s="7"/>
       <c r="K16" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L16" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="M16" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N16" s="2">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O16" s="2">
-        <v>1</v>
-      </c>
-      <c r="P16" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="P16" s="2">
+        <v>40</v>
+      </c>
       <c r="Q16" s="2">
-        <v>4</v>
-      </c>
-      <c r="R16" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="R16" s="2">
+        <v>12</v>
+      </c>
       <c r="S16" s="2">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="T16" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="U16" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V16" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="W16" s="2">
-        <v>1</v>
-      </c>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="X16" s="3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="2">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="G17" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="I17" s="7">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="2">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="L17" s="2">
+        <v>20</v>
+      </c>
+      <c r="M17" s="2">
+        <v>12</v>
+      </c>
+      <c r="N17" s="2">
+        <v>25</v>
+      </c>
+      <c r="O17" s="2">
+        <v>22</v>
+      </c>
+      <c r="P17" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="2">
         <v>9</v>
       </c>
-      <c r="M17" s="2">
-        <v>2</v>
-      </c>
-      <c r="N17" s="2">
-        <v>6</v>
-      </c>
-      <c r="O17" s="2">
-        <v>2</v>
-      </c>
-      <c r="P17" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>11</v>
-      </c>
       <c r="R17" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="S17" s="2">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="T17" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="U17" s="2">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="V17" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="W17" s="2">
-        <v>6</v>
-      </c>
-      <c r="X17" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>4</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="X17" s="3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="7">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="2">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="G18" s="2">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H18" s="2">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="I18" s="7">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="J18" s="7"/>
       <c r="K18" s="2">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="L18" s="2">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="M18" s="2">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N18" s="2">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="O18" s="2">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="P18" s="2">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="2">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="R18" s="2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="S18" s="2">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="T18" s="2">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="U18" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="V18" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="W18" s="2">
-        <v>10</v>
-      </c>
-      <c r="X18" s="2">
-        <v>6</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>9</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="X18" s="3">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="2">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="G19" s="2">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="H19" s="2">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="I19" s="7">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="J19" s="7"/>
       <c r="K19" s="2">
-        <v>10</v>
+        <v>167</v>
       </c>
       <c r="L19" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="M19" s="2">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="N19" s="2">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="O19" s="2">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="P19" s="2">
-        <v>2</v>
+        <v>394</v>
       </c>
       <c r="Q19" s="2">
-        <v>60</v>
-      </c>
-      <c r="R19" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="R19" s="2">
+        <v>70</v>
+      </c>
       <c r="S19" s="2">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="T19" s="2">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="U19" s="2">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="V19" s="2">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="W19" s="2">
-        <v>29</v>
-      </c>
-      <c r="X19" s="2">
-        <v>18</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>12</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>17</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="X19" s="3">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D20" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G20" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H20" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I20" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J20" s="7"/>
       <c r="K20" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L20" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N20" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="O20" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P20" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="2">
-        <v>3</v>
-      </c>
-      <c r="R20" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="R20" s="2">
+        <v>6</v>
+      </c>
       <c r="S20" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T20" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U20" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V20" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W20" s="2">
-        <v>1</v>
-      </c>
-      <c r="X20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="X20" s="3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="2">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G21" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H21" s="2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="I21" s="7">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J21" s="7"/>
       <c r="K21" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="L21" s="2">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N21" s="2">
-        <v>2</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="O21" s="2">
+        <v>9</v>
+      </c>
       <c r="P21" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>14</v>
+      </c>
+      <c r="R21" s="2">
         <v>6</v>
       </c>
-      <c r="Q21" s="2">
-        <v>6</v>
-      </c>
-      <c r="R21" s="2">
-        <v>1</v>
-      </c>
       <c r="S21" s="2">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="T21" s="2">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="U21" s="2">
         <v>6</v>
       </c>
       <c r="V21" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="W21" s="2">
-        <v>3</v>
-      </c>
-      <c r="X21" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="X21" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D22" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G22" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H22" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L22" s="2">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="M22" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N22" s="2">
-        <v>2</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="O22" s="2">
+        <v>9</v>
+      </c>
       <c r="P22" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="Q22" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R22" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S22" s="2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="T22" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U22" s="2">
-        <v>2</v>
-      </c>
-      <c r="V22" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="V22" s="2">
+        <v>22</v>
+      </c>
       <c r="W22" s="2">
-        <v>1</v>
-      </c>
-      <c r="X22" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="X22" s="3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D23" s="7">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="2">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="G23" s="2">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="H23" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I23" s="7">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="J23" s="7"/>
       <c r="K23" s="2">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="L23" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="M23" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="N23" s="2">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="O23" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="P23" s="2">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="Q23" s="2">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="R23" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="S23" s="2">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="T23" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="U23" s="2">
-        <v>10</v>
-      </c>
-      <c r="V23" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="V23" s="2">
+        <v>37</v>
+      </c>
       <c r="W23" s="2">
-        <v>4</v>
-      </c>
-      <c r="X23" s="2">
-        <v>9</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>8</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>10</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="X23" s="3">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D24" s="7">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="2">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="G24" s="2">
-        <v>50</v>
+        <v>254</v>
       </c>
       <c r="H24" s="2">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="I24" s="7">
-        <v>20</v>
+        <v>263</v>
       </c>
       <c r="J24" s="7"/>
       <c r="K24" s="2">
-        <v>11</v>
-      </c>
-      <c r="L24" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="L24" s="2">
+        <v>75</v>
+      </c>
       <c r="M24" s="2">
-        <v>35</v>
+        <v>243</v>
       </c>
       <c r="N24" s="2">
-        <v>55</v>
+        <v>255</v>
       </c>
       <c r="O24" s="2">
-        <v>8</v>
+        <v>159</v>
       </c>
       <c r="P24" s="2">
-        <v>26</v>
+        <v>550</v>
       </c>
       <c r="Q24" s="2">
-        <v>80</v>
+        <v>273</v>
       </c>
       <c r="R24" s="2">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="S24" s="2">
-        <v>52</v>
+        <v>294</v>
       </c>
       <c r="T24" s="2">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="U24" s="2">
-        <v>56</v>
-      </c>
-      <c r="V24" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="V24" s="2">
+        <v>194</v>
+      </c>
       <c r="W24" s="2">
-        <v>45</v>
-      </c>
-      <c r="X24" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>27</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>9</v>
-      </c>
-      <c r="AA24" s="2">
-        <v>30</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="X24" s="3">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D25" s="7">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="2">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="G25" s="2">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="H25" s="2">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="I25" s="7">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="J25" s="7"/>
       <c r="K25" s="2">
+        <v>58</v>
+      </c>
+      <c r="L25" s="2">
+        <v>46</v>
+      </c>
+      <c r="M25" s="2">
+        <v>24</v>
+      </c>
+      <c r="N25" s="2">
+        <v>54</v>
+      </c>
+      <c r="O25" s="2">
+        <v>40</v>
+      </c>
+      <c r="P25" s="2">
+        <v>158</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>46</v>
+      </c>
+      <c r="R25" s="2">
+        <v>54</v>
+      </c>
+      <c r="S25" s="2">
+        <v>76</v>
+      </c>
+      <c r="T25" s="2">
+        <v>72</v>
+      </c>
+      <c r="U25" s="2">
+        <v>83</v>
+      </c>
+      <c r="V25" s="2">
+        <v>42</v>
+      </c>
+      <c r="W25" s="2">
+        <v>57</v>
+      </c>
+      <c r="X25" s="3">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="7">
+        <v>40</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="2">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2">
+        <v>40</v>
+      </c>
+      <c r="H26" s="2">
         <v>10</v>
       </c>
-      <c r="L25" s="2">
-        <v>3</v>
-      </c>
-      <c r="M25" s="2">
-        <v>10</v>
-      </c>
-      <c r="N25" s="2">
-        <v>10</v>
-      </c>
-      <c r="O25" s="2">
-        <v>5</v>
-      </c>
-      <c r="P25" s="2">
-        <v>6</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>20</v>
-      </c>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2">
-        <v>10</v>
-      </c>
-      <c r="T25" s="2">
-        <v>6</v>
-      </c>
-      <c r="U25" s="2">
-        <v>20</v>
-      </c>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2">
-        <v>7</v>
-      </c>
-      <c r="X25" s="2">
-        <v>14</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>18</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="7">
-        <v>3</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>8</v>
-      </c>
-      <c r="H26" s="2">
-        <v>4</v>
-      </c>
       <c r="I26" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J26" s="7"/>
       <c r="K26" s="2">
-        <v>3</v>
-      </c>
-      <c r="L26" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="L26" s="2">
+        <v>20</v>
+      </c>
       <c r="M26" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="N26" s="2">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="O26" s="2">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="P26" s="2">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="2">
-        <v>14</v>
-      </c>
-      <c r="R26" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="R26" s="2">
+        <v>9</v>
+      </c>
       <c r="S26" s="2">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="T26" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="U26" s="2">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="V26" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="W26" s="2">
-        <v>6</v>
-      </c>
-      <c r="X26" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="X26" s="3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D27" s="7">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G27" s="2">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="H27" s="2">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I27" s="7">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="2">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="L27" s="2">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="M27" s="2">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="N27" s="2">
+        <v>35</v>
+      </c>
+      <c r="O27" s="2">
+        <v>21</v>
+      </c>
+      <c r="P27" s="2">
+        <v>97</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>20</v>
+      </c>
+      <c r="R27" s="2">
+        <v>10</v>
+      </c>
+      <c r="S27" s="2">
+        <v>64</v>
+      </c>
+      <c r="T27" s="2">
+        <v>45</v>
+      </c>
+      <c r="U27" s="2">
+        <v>38</v>
+      </c>
+      <c r="V27" s="2">
+        <v>29</v>
+      </c>
+      <c r="W27" s="2">
+        <v>52</v>
+      </c>
+      <c r="X27" s="3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="7">
+        <v>9</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="2">
+        <v>6</v>
+      </c>
+      <c r="G28" s="2">
+        <v>23</v>
+      </c>
+      <c r="H28" s="2">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7">
+        <v>22</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="2">
+        <v>5</v>
+      </c>
+      <c r="L28" s="2">
         <v>11</v>
       </c>
-      <c r="O27" s="2">
-        <v>1</v>
-      </c>
-      <c r="P27" s="2">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>13</v>
-      </c>
-      <c r="R27" s="2">
-        <v>1</v>
-      </c>
-      <c r="S27" s="2">
-        <v>5</v>
-      </c>
-      <c r="T27" s="2">
-        <v>2</v>
-      </c>
-      <c r="U27" s="2">
-        <v>8</v>
-      </c>
-      <c r="V27" s="2">
-        <v>3</v>
-      </c>
-      <c r="W27" s="2">
-        <v>11</v>
-      </c>
-      <c r="X27" s="2">
+      <c r="M28" s="2">
         <v>7</v>
       </c>
-      <c r="Y27" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="N28" s="2">
+        <v>9</v>
+      </c>
+      <c r="O28" s="2">
+        <v>4</v>
+      </c>
+      <c r="P28" s="2">
         <v>32</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2">
-        <v>3</v>
-      </c>
-      <c r="H28" s="2">
-        <v>1</v>
-      </c>
-      <c r="I28" s="7">
-        <v>1</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2">
-        <v>3</v>
-      </c>
-      <c r="M28" s="2">
-        <v>1</v>
-      </c>
-      <c r="N28" s="2">
-        <v>2</v>
-      </c>
-      <c r="O28" s="2">
-        <v>1</v>
-      </c>
-      <c r="P28" s="2">
-        <v>4</v>
       </c>
       <c r="Q28" s="2">
         <v>6</v>
       </c>
-      <c r="R28" s="2"/>
+      <c r="R28" s="2">
+        <v>7</v>
+      </c>
       <c r="S28" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T28" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U28" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V28" s="2">
-        <v>1</v>
-      </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="W28" s="2">
+        <v>8</v>
+      </c>
+      <c r="X28" s="3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D29" s="7">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="2">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="G29" s="2">
-        <v>75</v>
+        <v>462</v>
       </c>
       <c r="H29" s="2">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I29" s="7">
-        <v>11</v>
+        <v>662</v>
       </c>
       <c r="J29" s="7"/>
       <c r="K29" s="2">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="L29" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="M29" s="2">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="N29" s="2">
+        <v>518</v>
+      </c>
+      <c r="O29" s="2">
+        <v>64</v>
+      </c>
+      <c r="P29" s="2">
+        <v>532</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>353</v>
+      </c>
+      <c r="R29" s="2">
+        <v>132</v>
+      </c>
+      <c r="S29" s="2">
+        <v>82</v>
+      </c>
+      <c r="T29" s="2">
+        <v>63</v>
+      </c>
+      <c r="U29" s="2">
+        <v>296</v>
+      </c>
+      <c r="V29" s="2">
+        <v>253</v>
+      </c>
+      <c r="W29" s="2">
+        <v>216</v>
+      </c>
+      <c r="X29" s="3">
+        <v>4178</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="O29" s="2">
-        <v>9</v>
-      </c>
-      <c r="P29" s="2">
-        <v>7</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>70</v>
-      </c>
-      <c r="R29" s="2">
-        <v>2</v>
-      </c>
-      <c r="S29" s="2">
-        <v>35</v>
-      </c>
-      <c r="T29" s="2">
-        <v>11</v>
-      </c>
-      <c r="U29" s="2">
-        <v>12</v>
-      </c>
-      <c r="V29" s="2">
-        <v>4</v>
-      </c>
-      <c r="W29" s="2">
-        <v>10</v>
-      </c>
-      <c r="X29" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y29" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>16</v>
-      </c>
-      <c r="AA29" s="2">
-        <v>34</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D30" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E30" s="7"/>
       <c r="F30" s="2">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G30" s="2">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="H30" s="2">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I30" s="7">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="J30" s="7"/>
       <c r="K30" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="L30" s="2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="M30" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="N30" s="2">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="O30" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="P30" s="2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="Q30" s="2">
-        <v>15</v>
-      </c>
-      <c r="R30" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="R30" s="2">
+        <v>31</v>
+      </c>
       <c r="S30" s="2">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="T30" s="2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="U30" s="2">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="V30" s="2">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="W30" s="2">
-        <v>5</v>
-      </c>
-      <c r="X30" s="2">
-        <v>10</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>8</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>6</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="X30" s="3">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="7">
         <v>32</v>
       </c>
-      <c r="D31" s="7">
-        <v>5</v>
-      </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2">
+        <v>39</v>
+      </c>
       <c r="G31" s="2">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="H31" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="I31" s="7">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="J31" s="7"/>
       <c r="K31" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="L31" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M31" s="2">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="N31" s="2">
-        <v>9</v>
+        <v>80</v>
       </c>
       <c r="O31" s="2">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="P31" s="2">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="Q31" s="2">
-        <v>14</v>
-      </c>
-      <c r="R31" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="R31" s="2">
+        <v>25</v>
+      </c>
       <c r="S31" s="2">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="T31" s="2">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="U31" s="2">
-        <v>1</v>
-      </c>
-      <c r="V31" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="V31" s="2">
+        <v>32</v>
+      </c>
       <c r="W31" s="2">
-        <v>6</v>
-      </c>
-      <c r="X31" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>6</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA31" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB31" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="X31" s="3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D32" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="G32" s="2">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H32" s="2">
-        <v>4</v>
-      </c>
-      <c r="I32" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="I32" s="7">
+        <v>50</v>
+      </c>
       <c r="J32" s="7"/>
       <c r="K32" s="2">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="L32" s="2">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M32" s="2">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N32" s="2">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="O32" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="P32" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="Q32" s="2">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="R32" s="2">
-        <v>4</v>
-      </c>
-      <c r="S32" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="S32" s="2">
+        <v>22</v>
+      </c>
       <c r="T32" s="2">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="U32" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="V32" s="2">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="W32" s="2">
-        <v>1</v>
-      </c>
-      <c r="X32" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>4</v>
-      </c>
-      <c r="AA32" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="X32" s="3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D33" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G33" s="2">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="H33" s="2">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I33" s="7">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="J33" s="7"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="2">
+        <v>19</v>
+      </c>
       <c r="L33" s="2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="M33" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="N33" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O33" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="P33" s="2">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="2">
-        <v>12</v>
-      </c>
-      <c r="R33" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="R33" s="2">
+        <v>29</v>
+      </c>
       <c r="S33" s="2">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="T33" s="2">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="U33" s="2">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="V33" s="2">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="W33" s="2">
-        <v>4</v>
-      </c>
-      <c r="X33" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="X33" s="3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D34" s="7">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" s="2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G34" s="2">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="H34" s="2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I34" s="7">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="2">
+        <v>22</v>
+      </c>
+      <c r="L34" s="2">
+        <v>109</v>
+      </c>
+      <c r="M34" s="2">
         <v>21</v>
       </c>
-      <c r="L34" s="2">
-        <v>7</v>
-      </c>
-      <c r="M34" s="2">
-        <v>4</v>
-      </c>
       <c r="N34" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="O34" s="2">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="P34" s="2">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="Q34" s="2">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="R34" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S34" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="T34" s="2">
-        <v>2</v>
-      </c>
-      <c r="U34" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="U34" s="2">
+        <v>48</v>
+      </c>
       <c r="V34" s="2">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="W34" s="2">
-        <v>3</v>
-      </c>
-      <c r="X34" s="2">
-        <v>6</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>15</v>
-      </c>
-      <c r="Z34" s="2"/>
-      <c r="AA34" s="2">
-        <v>6</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="X34" s="3">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D35" s="7">
-        <v>32</v>
+        <v>329</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" s="2">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="G35" s="2">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="H35" s="2">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="I35" s="7">
-        <v>11</v>
+        <v>341</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="2">
-        <v>3</v>
-      </c>
-      <c r="L35" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="L35" s="2">
+        <v>27</v>
+      </c>
       <c r="M35" s="2">
-        <v>27</v>
+        <v>182</v>
       </c>
       <c r="N35" s="2">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="O35" s="2">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="P35" s="2">
-        <v>9</v>
+        <v>554</v>
       </c>
       <c r="Q35" s="2">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="R35" s="2">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="S35" s="2">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="T35" s="2">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="U35" s="2">
-        <v>18</v>
+        <v>288</v>
       </c>
       <c r="V35" s="2">
-        <v>6</v>
+        <v>112</v>
       </c>
       <c r="W35" s="2">
-        <v>14</v>
-      </c>
-      <c r="X35" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y35" s="2">
-        <v>8</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>13</v>
-      </c>
-      <c r="AA35" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="X35" s="3">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D36" s="7">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="2">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G36" s="2">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="H36" s="2">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I36" s="7">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="2">
-        <v>2</v>
-      </c>
-      <c r="L36" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="L36" s="2">
+        <v>13</v>
+      </c>
       <c r="M36" s="2">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="N36" s="2">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="O36" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="P36" s="2">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="Q36" s="2">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="R36" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="S36" s="2">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="T36" s="2">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="U36" s="2">
-        <v>4</v>
-      </c>
-      <c r="V36" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="V36" s="2">
+        <v>18</v>
+      </c>
       <c r="W36" s="2">
-        <v>3</v>
-      </c>
-      <c r="X36" s="2">
-        <v>6</v>
-      </c>
-      <c r="Y36" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>4</v>
-      </c>
-      <c r="AB36" s="3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="X36" s="3">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D37" s="7">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" s="2">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="G37" s="2">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="H37" s="2">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I37" s="7">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="J37" s="7"/>
       <c r="K37" s="2">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="L37" s="2">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="M37" s="2">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="N37" s="2">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="O37" s="2">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="P37" s="2">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="Q37" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="R37" s="2">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="S37" s="2">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="T37" s="2">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="U37" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="V37" s="2">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="W37" s="2">
-        <v>15</v>
-      </c>
-      <c r="X37" s="2">
-        <v>15</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>11</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>9</v>
-      </c>
-      <c r="AB37" s="3">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="X37" s="3">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D38" s="7">
-        <v>13</v>
+        <v>195</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" s="2">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="G38" s="2">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="H38" s="2">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="I38" s="7">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="J38" s="7"/>
       <c r="K38" s="2">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="L38" s="2">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="M38" s="2">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="N38" s="2">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="O38" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="P38" s="2">
-        <v>21</v>
+        <v>359</v>
       </c>
       <c r="Q38" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="R38" s="2">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="S38" s="2">
-        <v>12</v>
+        <v>297</v>
       </c>
       <c r="T38" s="2">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="U38" s="2">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="V38" s="2">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="W38" s="2">
-        <v>10</v>
-      </c>
-      <c r="X38" s="2">
-        <v>8</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z38" s="2">
-        <v>7</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB38" s="3">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="X38" s="3">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D39" s="7">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="2">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="G39" s="2">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="H39" s="2">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="I39" s="7">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="J39" s="7"/>
       <c r="K39" s="2">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L39" s="2">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="M39" s="2">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N39" s="2">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="O39" s="2">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="P39" s="2">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="Q39" s="2">
-        <v>19</v>
-      </c>
-      <c r="R39" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="R39" s="2">
+        <v>38</v>
+      </c>
       <c r="S39" s="2">
-        <v>3</v>
+        <v>71</v>
       </c>
       <c r="T39" s="2">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="U39" s="2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="V39" s="2">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="W39" s="2">
-        <v>7</v>
-      </c>
-      <c r="X39" s="2">
-        <v>7</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>5</v>
-      </c>
-      <c r="AA39" s="2">
-        <v>8</v>
-      </c>
-      <c r="AB39" s="3">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="X39" s="3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D40" s="7">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" s="2">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="G40" s="2">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="H40" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I40" s="7">
-        <v>7</v>
+        <v>190</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="L40" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M40" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="N40" s="2">
-        <v>20</v>
+        <v>111</v>
       </c>
       <c r="O40" s="2">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="P40" s="2">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="Q40" s="2">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="R40" s="2">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="S40" s="2">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="T40" s="2">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="U40" s="2">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="V40" s="2">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="W40" s="2">
-        <v>8</v>
-      </c>
-      <c r="X40" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>3</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>7</v>
-      </c>
-      <c r="AB40" s="3">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="X40" s="3">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D41" s="7">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="2">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="G41" s="2">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="H41" s="2">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="I41" s="7">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="J41" s="7"/>
       <c r="K41" s="2">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="L41" s="2">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="M41" s="2">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="N41" s="2">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="O41" s="2">
-        <v>7</v>
+        <v>67</v>
       </c>
       <c r="P41" s="2">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="Q41" s="2">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="R41" s="2">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="S41" s="2">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="T41" s="2">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="U41" s="2">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="V41" s="2">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="W41" s="2">
-        <v>1</v>
-      </c>
-      <c r="X41" s="2">
-        <v>23</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>25</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>7</v>
-      </c>
-      <c r="AA41" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="X41" s="3">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D42" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="G42" s="2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H42" s="2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I42" s="7">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="J42" s="7"/>
       <c r="K42" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="L42" s="2">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="M42" s="2">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="N42" s="2">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="O42" s="2">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="P42" s="2">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="Q42" s="2">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="R42" s="2">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="S42" s="2">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="T42" s="2">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="U42" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="V42" s="2">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="W42" s="2">
-        <v>1</v>
-      </c>
-      <c r="X42" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>11</v>
-      </c>
-      <c r="AB42" s="3">
+        <v>50</v>
+      </c>
+      <c r="X42" s="3">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D43" s="7">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="2">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="G43" s="2">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="H43" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="I43" s="7">
-        <v>6</v>
+        <v>206</v>
       </c>
       <c r="J43" s="7"/>
       <c r="K43" s="2">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="L43" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="M43" s="2">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="N43" s="2">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="O43" s="2">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="P43" s="2">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="Q43" s="2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="R43" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="S43" s="2">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="T43" s="2">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="U43" s="2">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="V43" s="2">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="W43" s="2">
-        <v>8</v>
-      </c>
-      <c r="X43" s="2">
-        <v>10</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>8</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>6</v>
-      </c>
-      <c r="AA43" s="2">
-        <v>9</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="7">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="2">
-        <v>1</v>
-      </c>
-      <c r="G44" s="2">
+        <v>7</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2">
+        <v>9</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2">
         <v>3</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="7">
-        <v>2</v>
-      </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="2">
-        <v>1</v>
-      </c>
-      <c r="L44" s="2">
-        <v>1</v>
-      </c>
-      <c r="M44" s="2">
-        <v>1</v>
-      </c>
-      <c r="N44" s="2">
-        <v>2</v>
-      </c>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>3</v>
-      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2">
+        <v>5</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
-      <c r="S44" s="2">
-        <v>4</v>
-      </c>
-      <c r="T44" s="2">
-        <v>5</v>
-      </c>
-      <c r="U44" s="2">
-        <v>1</v>
-      </c>
-      <c r="V44" s="2">
-        <v>5</v>
-      </c>
-      <c r="W44" s="2">
-        <v>1</v>
-      </c>
-      <c r="X44" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="7">
-        <v>3</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D45" s="7"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="2">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2">
-        <v>4</v>
-      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="2">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
-      <c r="K45" s="2">
-        <v>3</v>
-      </c>
+      <c r="K45" s="2"/>
       <c r="L45" s="2"/>
-      <c r="M45" s="2">
-        <v>1</v>
-      </c>
-      <c r="N45" s="2">
-        <v>5</v>
-      </c>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>5</v>
-      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2">
+        <v>2</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
-      <c r="S45" s="2">
-        <v>4</v>
-      </c>
-      <c r="T45" s="2">
-        <v>5</v>
-      </c>
-      <c r="U45" s="2">
-        <v>2</v>
-      </c>
-      <c r="V45" s="2">
-        <v>3</v>
-      </c>
-      <c r="W45" s="2">
-        <v>1</v>
-      </c>
-      <c r="X45" s="2">
-        <v>3</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>3</v>
-      </c>
-      <c r="Z45" s="2"/>
-      <c r="AA45" s="2">
-        <v>3</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D46" s="7">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="2">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G46" s="2">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="H46" s="2">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="I46" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="J46" s="7"/>
       <c r="K46" s="2">
-        <v>3</v>
-      </c>
-      <c r="L46" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="L46" s="2">
+        <v>80</v>
+      </c>
       <c r="M46" s="2">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="N46" s="2">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="O46" s="2">
-        <v>1</v>
-      </c>
-      <c r="P46" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="P46" s="2">
+        <v>148</v>
+      </c>
       <c r="Q46" s="2">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="R46" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="S46" s="2">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="T46" s="2">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="U46" s="2">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="V46" s="2">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="W46" s="2">
-        <v>1</v>
-      </c>
-      <c r="X46" s="2">
-        <v>8</v>
-      </c>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-      <c r="AA46" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="X46" s="3">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
-      <c r="F47" s="2"/>
+      <c r="F47" s="2">
+        <v>2</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="7">
-        <v>3</v>
-      </c>
+      <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
@@ -4200,270 +3734,96 @@
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
+      <c r="T47" s="2">
+        <v>1</v>
+      </c>
       <c r="U47" s="2"/>
       <c r="V47" s="2">
+        <v>9</v>
+      </c>
+      <c r="W47" s="2">
         <v>1</v>
       </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-      <c r="AB47" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" s="7">
-        <v>12</v>
-      </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="2">
-        <v>10</v>
-      </c>
-      <c r="G48" s="2">
-        <v>23</v>
-      </c>
-      <c r="H48" s="2">
-        <v>10</v>
-      </c>
-      <c r="I48" s="7">
-        <v>10</v>
-      </c>
-      <c r="J48" s="7"/>
-      <c r="K48" s="2">
-        <v>4</v>
-      </c>
-      <c r="L48" s="2">
-        <v>8</v>
-      </c>
-      <c r="M48" s="2">
-        <v>7</v>
-      </c>
-      <c r="N48" s="2">
-        <v>18</v>
-      </c>
-      <c r="O48" s="2">
-        <v>11</v>
-      </c>
-      <c r="P48" s="2">
-        <v>22</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>18</v>
-      </c>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2">
-        <v>11</v>
-      </c>
-      <c r="T48" s="2">
-        <v>7</v>
-      </c>
-      <c r="U48" s="2">
-        <v>9</v>
-      </c>
-      <c r="V48" s="2">
-        <v>14</v>
-      </c>
-      <c r="W48" s="2">
-        <v>2</v>
-      </c>
-      <c r="X48" s="2">
-        <v>15</v>
-      </c>
-      <c r="Y48" s="2">
-        <v>10</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>8</v>
-      </c>
-      <c r="AA48" s="2">
-        <v>15</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="7">
-        <v>3</v>
-      </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="2">
-        <v>5</v>
-      </c>
-      <c r="G49" s="2">
-        <v>4</v>
-      </c>
-      <c r="H49" s="2">
-        <v>3</v>
-      </c>
-      <c r="I49" s="7">
-        <v>1</v>
-      </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="2">
-        <v>4</v>
-      </c>
-      <c r="L49" s="2">
-        <v>3</v>
-      </c>
-      <c r="M49" s="2">
-        <v>3</v>
-      </c>
-      <c r="N49" s="2">
-        <v>5</v>
-      </c>
-      <c r="O49" s="2">
-        <v>2</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2">
-        <v>10</v>
-      </c>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2">
-        <v>3</v>
-      </c>
-      <c r="T49" s="2">
-        <v>3</v>
-      </c>
-      <c r="U49" s="2">
-        <v>1</v>
-      </c>
-      <c r="V49" s="2">
-        <v>3</v>
-      </c>
-      <c r="W49" s="2">
-        <v>3</v>
-      </c>
-      <c r="X49" s="2">
-        <v>2</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>2</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>2</v>
-      </c>
-      <c r="AA49" s="2">
-        <v>5</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="8">
-        <v>441</v>
-      </c>
-      <c r="E50" s="8"/>
-      <c r="F50" s="3">
-        <v>294</v>
-      </c>
-      <c r="G50" s="3">
-        <v>634</v>
-      </c>
-      <c r="H50" s="3">
-        <v>266</v>
-      </c>
-      <c r="I50" s="8">
-        <v>273</v>
-      </c>
-      <c r="J50" s="8"/>
-      <c r="K50" s="3">
-        <v>261</v>
-      </c>
-      <c r="L50" s="3">
-        <v>179</v>
-      </c>
-      <c r="M50" s="3">
-        <v>330</v>
-      </c>
-      <c r="N50" s="3">
-        <v>713</v>
-      </c>
-      <c r="O50" s="3">
-        <v>209</v>
-      </c>
-      <c r="P50" s="3">
-        <v>314</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>954</v>
-      </c>
-      <c r="R50" s="3">
-        <v>112</v>
-      </c>
-      <c r="S50" s="3">
-        <v>466</v>
-      </c>
-      <c r="T50" s="3">
-        <v>208</v>
-      </c>
-      <c r="U50" s="3">
-        <v>387</v>
-      </c>
-      <c r="V50" s="3">
-        <v>178</v>
-      </c>
-      <c r="W50" s="3">
-        <v>356</v>
-      </c>
-      <c r="X50" s="3">
-        <v>448</v>
-      </c>
-      <c r="Y50" s="3">
-        <v>385</v>
-      </c>
-      <c r="Z50" s="3">
-        <v>188</v>
-      </c>
-      <c r="AA50" s="3">
-        <v>398</v>
-      </c>
-      <c r="AB50" s="3">
-        <v>7994</v>
+      <c r="X47" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="8">
+        <v>3309</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="3">
+        <v>2555</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4067</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2018</v>
+      </c>
+      <c r="I48" s="8">
+        <v>4656</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="3">
+        <v>2250</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1770</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1910</v>
+      </c>
+      <c r="N48" s="3">
+        <v>3956</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1630</v>
+      </c>
+      <c r="P48" s="3">
+        <v>6274</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>2775</v>
+      </c>
+      <c r="R48" s="3">
+        <v>1405</v>
+      </c>
+      <c r="S48" s="3">
+        <v>2812</v>
+      </c>
+      <c r="T48" s="3">
+        <v>2160</v>
+      </c>
+      <c r="U48" s="3">
+        <v>3073</v>
+      </c>
+      <c r="V48" s="3">
+        <v>2464</v>
+      </c>
+      <c r="W48" s="3">
+        <v>2732</v>
+      </c>
+      <c r="X48" s="3">
+        <v>51816</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="92">
+    <mergeCell ref="A48:C48"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="I50:J50"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="D46:E46"/>

--- a/Отчеты/OLAP по продажам ОБЩИЙ 02.12.2022 08.09.48.xlsx
+++ b/Отчеты/OLAP по продажам ОБЩИЙ 02.12.2022 08.09.48.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Project_Order\Отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F594582-6160-48EA-8476-ACE59EF02493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EFC3BF-71C3-4699-AB12-F104D244B8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
   <si>
     <t>OLAP отчет для Пекарни</t>
   </si>
@@ -353,6 +353,15 @@
   </si>
   <si>
     <t>Круассан мини микс шоколад</t>
+  </si>
+  <si>
+    <t>05454</t>
+  </si>
+  <si>
+    <t>dfydfhdfh</t>
+  </si>
+  <si>
+    <t>sdfgdsfhdfh</t>
   </si>
 </sst>
 </file>
@@ -430,7 +439,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -453,11 +462,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -468,20 +503,26 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,10 +808,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,43 +827,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
@@ -839,10 +880,10 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,10 +893,10 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
@@ -909,10 +950,10 @@
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>58</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="2">
         <v>142</v>
       </c>
@@ -922,10 +963,10 @@
       <c r="H6" s="2">
         <v>106</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>145</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="2">
         <v>112</v>
       </c>
@@ -979,10 +1020,10 @@
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>135</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="2">
         <v>130</v>
       </c>
@@ -992,10 +1033,10 @@
       <c r="H7" s="2">
         <v>82</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>196</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="2">
         <v>84</v>
       </c>
@@ -1049,10 +1090,10 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>148</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="2">
         <v>133</v>
       </c>
@@ -1062,10 +1103,10 @@
       <c r="H8" s="2">
         <v>143</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>183</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="2">
         <v>113</v>
       </c>
@@ -1119,10 +1160,10 @@
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>47</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="2">
         <v>42</v>
       </c>
@@ -1132,10 +1173,10 @@
       <c r="H9" s="2">
         <v>32</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>119</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="2">
         <v>35</v>
       </c>
@@ -1189,10 +1230,10 @@
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>122</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="2">
         <v>64</v>
       </c>
@@ -1202,10 +1243,10 @@
       <c r="H10" s="2">
         <v>36</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>191</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="2">
         <v>45</v>
       </c>
@@ -1259,10 +1300,10 @@
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>92</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="2">
         <v>115</v>
       </c>
@@ -1272,10 +1313,10 @@
       <c r="H11" s="2">
         <v>71</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>141</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="2">
         <v>74</v>
       </c>
@@ -1329,10 +1370,10 @@
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>116</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="2">
         <v>78</v>
       </c>
@@ -1342,10 +1383,10 @@
       <c r="H12" s="2">
         <v>61</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>113</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="2">
         <v>104</v>
       </c>
@@ -1399,10 +1440,10 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>13</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="2">
         <v>8</v>
       </c>
@@ -1412,10 +1453,10 @@
       <c r="H13" s="2">
         <v>5</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>10</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="2">
         <v>13</v>
       </c>
@@ -1469,10 +1510,10 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>87</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="2">
         <v>191</v>
       </c>
@@ -1482,10 +1523,10 @@
       <c r="H14" s="2">
         <v>125</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>110</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="2">
         <v>160</v>
       </c>
@@ -1539,10 +1580,10 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>20</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="2">
         <v>17</v>
       </c>
@@ -1552,10 +1593,10 @@
       <c r="H15" s="2">
         <v>28</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>30</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="2">
         <v>21</v>
       </c>
@@ -1609,10 +1650,10 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>11</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="2">
         <v>23</v>
       </c>
@@ -1622,10 +1663,10 @@
       <c r="H16" s="2">
         <v>17</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>22</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="2">
         <v>9</v>
       </c>
@@ -1679,10 +1720,10 @@
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>20</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="2">
         <v>39</v>
       </c>
@@ -1692,10 +1733,10 @@
       <c r="H17" s="2">
         <v>43</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>34</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="2">
         <v>41</v>
       </c>
@@ -1749,10 +1790,10 @@
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>63</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="2">
         <v>78</v>
       </c>
@@ -1762,10 +1803,10 @@
       <c r="H18" s="2">
         <v>47</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>67</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="2">
         <v>54</v>
       </c>
@@ -1819,10 +1860,10 @@
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>188</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="2">
         <v>130</v>
       </c>
@@ -1832,10 +1873,10 @@
       <c r="H19" s="2">
         <v>159</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>181</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="2">
         <v>167</v>
       </c>
@@ -1889,10 +1930,10 @@
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>5</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="2">
         <v>7</v>
       </c>
@@ -1902,10 +1943,10 @@
       <c r="H20" s="2">
         <v>10</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>6</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="2">
         <v>7</v>
       </c>
@@ -1959,10 +2000,10 @@
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>8</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="2">
         <v>28</v>
       </c>
@@ -1972,10 +2013,10 @@
       <c r="H21" s="2">
         <v>28</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>19</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="2">
         <v>23</v>
       </c>
@@ -2029,10 +2070,10 @@
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>10</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="2">
         <v>16</v>
       </c>
@@ -2042,10 +2083,10 @@
       <c r="H22" s="2">
         <v>11</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>18</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="2">
         <v>6</v>
       </c>
@@ -2099,10 +2140,10 @@
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>70</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="2">
         <v>29</v>
       </c>
@@ -2112,10 +2153,10 @@
       <c r="H23" s="2">
         <v>25</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>163</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="2">
         <v>26</v>
       </c>
@@ -2169,10 +2210,10 @@
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>335</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="2">
         <v>234</v>
       </c>
@@ -2182,10 +2223,10 @@
       <c r="H24" s="2">
         <v>190</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>263</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="2">
         <v>191</v>
       </c>
@@ -2239,10 +2280,10 @@
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>76</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="2">
         <v>58</v>
       </c>
@@ -2252,10 +2293,10 @@
       <c r="H25" s="2">
         <v>58</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>107</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="2">
         <v>58</v>
       </c>
@@ -2309,10 +2350,10 @@
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>40</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="2">
         <v>15</v>
       </c>
@@ -2322,10 +2363,10 @@
       <c r="H26" s="2">
         <v>10</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>33</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="2">
         <v>14</v>
       </c>
@@ -2379,10 +2420,10 @@
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>58</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="2">
         <v>18</v>
       </c>
@@ -2392,10 +2433,10 @@
       <c r="H27" s="2">
         <v>17</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>56</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="2">
         <v>49</v>
       </c>
@@ -2449,10 +2490,10 @@
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>9</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="2">
         <v>6</v>
       </c>
@@ -2462,10 +2503,10 @@
       <c r="H28" s="2">
         <v>6</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>22</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="2">
         <v>5</v>
       </c>
@@ -2519,10 +2560,10 @@
       <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>240</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="2">
         <v>95</v>
       </c>
@@ -2532,10 +2573,10 @@
       <c r="H29" s="2">
         <v>50</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>662</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="2">
         <v>82</v>
       </c>
@@ -2589,10 +2630,10 @@
       <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>53</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="2">
         <v>36</v>
       </c>
@@ -2602,10 +2643,10 @@
       <c r="H30" s="2">
         <v>33</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>114</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="2">
         <v>39</v>
       </c>
@@ -2659,10 +2700,10 @@
       <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>32</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="2">
         <v>39</v>
       </c>
@@ -2672,10 +2713,10 @@
       <c r="H31" s="2">
         <v>18</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>97</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="2">
         <v>31</v>
       </c>
@@ -2729,10 +2770,10 @@
       <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>21</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="2">
         <v>24</v>
       </c>
@@ -2742,10 +2783,10 @@
       <c r="H32" s="2">
         <v>14</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>50</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="2">
         <v>23</v>
       </c>
@@ -2799,10 +2840,10 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>26</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="2">
         <v>25</v>
       </c>
@@ -2812,10 +2853,10 @@
       <c r="H33" s="2">
         <v>25</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>69</v>
       </c>
-      <c r="J33" s="7"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="2">
         <v>19</v>
       </c>
@@ -2869,10 +2910,10 @@
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>49</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="2">
         <v>27</v>
       </c>
@@ -2882,10 +2923,10 @@
       <c r="H34" s="2">
         <v>25</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>38</v>
       </c>
-      <c r="J34" s="7"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="2">
         <v>22</v>
       </c>
@@ -2939,10 +2980,10 @@
       <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>329</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="2">
         <v>138</v>
       </c>
@@ -2952,10 +2993,10 @@
       <c r="H35" s="2">
         <v>71</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>341</v>
       </c>
-      <c r="J35" s="7"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="2">
         <v>95</v>
       </c>
@@ -3009,10 +3050,10 @@
       <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>42</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="2">
         <v>36</v>
       </c>
@@ -3022,10 +3063,10 @@
       <c r="H36" s="2">
         <v>18</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>58</v>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J36" s="6"/>
       <c r="K36" s="2">
         <v>27</v>
       </c>
@@ -3079,10 +3120,10 @@
       <c r="C37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>58</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="2">
         <v>63</v>
       </c>
@@ -3092,10 +3133,10 @@
       <c r="H37" s="2">
         <v>37</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>101</v>
       </c>
-      <c r="J37" s="7"/>
+      <c r="J37" s="6"/>
       <c r="K37" s="2">
         <v>58</v>
       </c>
@@ -3149,10 +3190,10 @@
       <c r="C38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>195</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="2">
         <v>160</v>
       </c>
@@ -3162,10 +3203,10 @@
       <c r="H38" s="2">
         <v>160</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>139</v>
       </c>
-      <c r="J38" s="7"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="2">
         <v>108</v>
       </c>
@@ -3219,10 +3260,10 @@
       <c r="C39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>71</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="2">
         <v>52</v>
       </c>
@@ -3232,10 +3273,10 @@
       <c r="H39" s="2">
         <v>58</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>62</v>
       </c>
-      <c r="J39" s="7"/>
+      <c r="J39" s="6"/>
       <c r="K39" s="2">
         <v>60</v>
       </c>
@@ -3289,10 +3330,10 @@
       <c r="C40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>88</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="2">
         <v>39</v>
       </c>
@@ -3302,10 +3343,10 @@
       <c r="H40" s="2">
         <v>30</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>190</v>
       </c>
-      <c r="J40" s="7"/>
+      <c r="J40" s="6"/>
       <c r="K40" s="2">
         <v>38</v>
       </c>
@@ -3359,10 +3400,10 @@
       <c r="C41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>214</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="2">
         <v>73</v>
       </c>
@@ -3372,10 +3413,10 @@
       <c r="H41" s="2">
         <v>41</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>143</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="6"/>
       <c r="K41" s="2">
         <v>88</v>
       </c>
@@ -3429,10 +3470,10 @@
       <c r="C42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>31</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="2">
         <v>17</v>
       </c>
@@ -3442,10 +3483,10 @@
       <c r="H42" s="2">
         <v>16</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>68</v>
       </c>
-      <c r="J42" s="7"/>
+      <c r="J42" s="6"/>
       <c r="K42" s="2">
         <v>20</v>
       </c>
@@ -3499,10 +3540,10 @@
       <c r="C43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>39</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="2">
         <v>61</v>
       </c>
@@ -3512,10 +3553,10 @@
       <c r="H43" s="2">
         <v>29</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>206</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="6"/>
       <c r="K43" s="2">
         <v>46</v>
       </c>
@@ -3569,8 +3610,8 @@
       <c r="C44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="2">
         <v>7</v>
       </c>
@@ -3578,8 +3619,8 @@
       <c r="H44" s="2">
         <v>9</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2">
         <v>3</v>
@@ -3611,15 +3652,15 @@
       <c r="C45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2">
         <v>13</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -3649,10 +3690,10 @@
       <c r="C46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>90</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="2">
         <v>60</v>
       </c>
@@ -3662,10 +3703,10 @@
       <c r="H46" s="2">
         <v>61</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>89</v>
       </c>
-      <c r="J46" s="7"/>
+      <c r="J46" s="6"/>
       <c r="K46" s="2">
         <v>83</v>
       </c>
@@ -3711,208 +3752,248 @@
     </row>
     <row r="47" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="D47" s="9">
+        <v>3324</v>
+      </c>
+      <c r="E47" s="10"/>
       <c r="F47" s="2">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="I47" s="9">
+        <v>2</v>
+      </c>
+      <c r="J47" s="10"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="2">
-        <v>3</v>
-      </c>
+      <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-      <c r="T47" s="2">
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2">
         <v>1</v>
       </c>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2">
+      <c r="U48" s="2"/>
+      <c r="V48" s="2">
         <v>9</v>
       </c>
-      <c r="W47" s="2">
+      <c r="W48" s="2">
         <v>1</v>
       </c>
-      <c r="X47" s="3">
+      <c r="X48" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="8">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5">
         <v>3309</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="3">
+      <c r="E49" s="5"/>
+      <c r="F49" s="3">
         <v>2555</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="3">
         <v>4067</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H49" s="3">
         <v>2018</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I49" s="5">
         <v>4656</v>
       </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="3">
+      <c r="J49" s="5"/>
+      <c r="K49" s="3">
         <v>2250</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L49" s="3">
         <v>1770</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M49" s="3">
         <v>1910</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N49" s="3">
         <v>3956</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O49" s="3">
         <v>1630</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P49" s="3">
         <v>6274</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q49" s="3">
         <v>2775</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R49" s="3">
         <v>1405</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S49" s="3">
         <v>2812</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T49" s="3">
         <v>2160</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U49" s="3">
         <v>3073</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V49" s="3">
         <v>2464</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W49" s="3">
         <v>2732</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X49" s="3">
         <v>51816</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:J47"/>
+  <mergeCells count="94">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I41:J41"/>
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:J47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>

--- a/Отчеты/OLAP по продажам ОБЩИЙ 02.12.2022 08.09.48.xlsx
+++ b/Отчеты/OLAP по продажам ОБЩИЙ 02.12.2022 08.09.48.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Project_Order\Отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EFC3BF-71C3-4699-AB12-F104D244B8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1359586-29DC-4F70-B4E0-46CFCE6631EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
   <si>
     <t>OLAP отчет для Пекарни</t>
   </si>
@@ -353,15 +353,6 @@
   </si>
   <si>
     <t>Круассан мини микс шоколад</t>
-  </si>
-  <si>
-    <t>05454</t>
-  </si>
-  <si>
-    <t>dfydfhdfh</t>
-  </si>
-  <si>
-    <t>sdfgdsfhdfh</t>
   </si>
 </sst>
 </file>
@@ -439,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -462,37 +453,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -503,26 +468,20 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -808,10 +767,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X49"/>
+  <dimension ref="A1:X48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,43 +786,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
@@ -880,10 +839,10 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
@@ -893,10 +852,10 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="6"/>
       <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
@@ -950,10 +909,10 @@
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="7">
         <v>58</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="2">
         <v>142</v>
       </c>
@@ -963,10 +922,10 @@
       <c r="H6" s="2">
         <v>106</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>145</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="2">
         <v>112</v>
       </c>
@@ -1020,10 +979,10 @@
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>135</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="7"/>
       <c r="F7" s="2">
         <v>130</v>
       </c>
@@ -1033,10 +992,10 @@
       <c r="H7" s="2">
         <v>82</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <v>196</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="2">
         <v>84</v>
       </c>
@@ -1090,10 +1049,10 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>148</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="2">
         <v>133</v>
       </c>
@@ -1103,10 +1062,10 @@
       <c r="H8" s="2">
         <v>143</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>183</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="7"/>
       <c r="K8" s="2">
         <v>113</v>
       </c>
@@ -1160,10 +1119,10 @@
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="7">
         <v>47</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="7"/>
       <c r="F9" s="2">
         <v>42</v>
       </c>
@@ -1173,10 +1132,10 @@
       <c r="H9" s="2">
         <v>32</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>119</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="7"/>
       <c r="K9" s="2">
         <v>35</v>
       </c>
@@ -1230,10 +1189,10 @@
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>122</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="2">
         <v>64</v>
       </c>
@@ -1243,10 +1202,10 @@
       <c r="H10" s="2">
         <v>36</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="7">
         <v>191</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="7"/>
       <c r="K10" s="2">
         <v>45</v>
       </c>
@@ -1300,10 +1259,10 @@
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>92</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="7"/>
       <c r="F11" s="2">
         <v>115</v>
       </c>
@@ -1313,10 +1272,10 @@
       <c r="H11" s="2">
         <v>71</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="7">
         <v>141</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="7"/>
       <c r="K11" s="2">
         <v>74</v>
       </c>
@@ -1370,10 +1329,10 @@
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>116</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="2">
         <v>78</v>
       </c>
@@ -1383,10 +1342,10 @@
       <c r="H12" s="2">
         <v>61</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="7">
         <v>113</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="7"/>
       <c r="K12" s="2">
         <v>104</v>
       </c>
@@ -1440,10 +1399,10 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>13</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="2">
         <v>8</v>
       </c>
@@ -1453,10 +1412,10 @@
       <c r="H13" s="2">
         <v>5</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>10</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="7"/>
       <c r="K13" s="2">
         <v>13</v>
       </c>
@@ -1510,10 +1469,10 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>87</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="2">
         <v>191</v>
       </c>
@@ -1523,10 +1482,10 @@
       <c r="H14" s="2">
         <v>125</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="7">
         <v>110</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="7"/>
       <c r="K14" s="2">
         <v>160</v>
       </c>
@@ -1580,10 +1539,10 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>20</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="2">
         <v>17</v>
       </c>
@@ -1593,10 +1552,10 @@
       <c r="H15" s="2">
         <v>28</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="7">
         <v>30</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="7"/>
       <c r="K15" s="2">
         <v>21</v>
       </c>
@@ -1650,10 +1609,10 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>11</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="7"/>
       <c r="F16" s="2">
         <v>23</v>
       </c>
@@ -1663,10 +1622,10 @@
       <c r="H16" s="2">
         <v>17</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="7">
         <v>22</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="7"/>
       <c r="K16" s="2">
         <v>9</v>
       </c>
@@ -1720,10 +1679,10 @@
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>20</v>
       </c>
-      <c r="E17" s="6"/>
+      <c r="E17" s="7"/>
       <c r="F17" s="2">
         <v>39</v>
       </c>
@@ -1733,10 +1692,10 @@
       <c r="H17" s="2">
         <v>43</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="7">
         <v>34</v>
       </c>
-      <c r="J17" s="6"/>
+      <c r="J17" s="7"/>
       <c r="K17" s="2">
         <v>41</v>
       </c>
@@ -1790,10 +1749,10 @@
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>63</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="2">
         <v>78</v>
       </c>
@@ -1803,10 +1762,10 @@
       <c r="H18" s="2">
         <v>47</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="7">
         <v>67</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="7"/>
       <c r="K18" s="2">
         <v>54</v>
       </c>
@@ -1860,10 +1819,10 @@
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7">
         <v>188</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="7"/>
       <c r="F19" s="2">
         <v>130</v>
       </c>
@@ -1873,10 +1832,10 @@
       <c r="H19" s="2">
         <v>159</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="7">
         <v>181</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="7"/>
       <c r="K19" s="2">
         <v>167</v>
       </c>
@@ -1930,10 +1889,10 @@
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <v>5</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="7"/>
       <c r="F20" s="2">
         <v>7</v>
       </c>
@@ -1943,10 +1902,10 @@
       <c r="H20" s="2">
         <v>10</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="7">
         <v>6</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J20" s="7"/>
       <c r="K20" s="2">
         <v>7</v>
       </c>
@@ -2000,10 +1959,10 @@
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="7">
         <v>8</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="7"/>
       <c r="F21" s="2">
         <v>28</v>
       </c>
@@ -2013,10 +1972,10 @@
       <c r="H21" s="2">
         <v>28</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="7">
         <v>19</v>
       </c>
-      <c r="J21" s="6"/>
+      <c r="J21" s="7"/>
       <c r="K21" s="2">
         <v>23</v>
       </c>
@@ -2070,10 +2029,10 @@
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <v>10</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="7"/>
       <c r="F22" s="2">
         <v>16</v>
       </c>
@@ -2083,10 +2042,10 @@
       <c r="H22" s="2">
         <v>11</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="7">
         <v>18</v>
       </c>
-      <c r="J22" s="6"/>
+      <c r="J22" s="7"/>
       <c r="K22" s="2">
         <v>6</v>
       </c>
@@ -2140,10 +2099,10 @@
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="7">
         <v>70</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="7"/>
       <c r="F23" s="2">
         <v>29</v>
       </c>
@@ -2153,10 +2112,10 @@
       <c r="H23" s="2">
         <v>25</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="7">
         <v>163</v>
       </c>
-      <c r="J23" s="6"/>
+      <c r="J23" s="7"/>
       <c r="K23" s="2">
         <v>26</v>
       </c>
@@ -2210,10 +2169,10 @@
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="7">
         <v>335</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="7"/>
       <c r="F24" s="2">
         <v>234</v>
       </c>
@@ -2223,10 +2182,10 @@
       <c r="H24" s="2">
         <v>190</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="7">
         <v>263</v>
       </c>
-      <c r="J24" s="6"/>
+      <c r="J24" s="7"/>
       <c r="K24" s="2">
         <v>191</v>
       </c>
@@ -2280,10 +2239,10 @@
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="7">
         <v>76</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="7"/>
       <c r="F25" s="2">
         <v>58</v>
       </c>
@@ -2293,10 +2252,10 @@
       <c r="H25" s="2">
         <v>58</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="7">
         <v>107</v>
       </c>
-      <c r="J25" s="6"/>
+      <c r="J25" s="7"/>
       <c r="K25" s="2">
         <v>58</v>
       </c>
@@ -2350,10 +2309,10 @@
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>40</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="7"/>
       <c r="F26" s="2">
         <v>15</v>
       </c>
@@ -2363,10 +2322,10 @@
       <c r="H26" s="2">
         <v>10</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="7">
         <v>33</v>
       </c>
-      <c r="J26" s="6"/>
+      <c r="J26" s="7"/>
       <c r="K26" s="2">
         <v>14</v>
       </c>
@@ -2420,10 +2379,10 @@
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="7">
         <v>58</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="2">
         <v>18</v>
       </c>
@@ -2433,10 +2392,10 @@
       <c r="H27" s="2">
         <v>17</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="7">
         <v>56</v>
       </c>
-      <c r="J27" s="6"/>
+      <c r="J27" s="7"/>
       <c r="K27" s="2">
         <v>49</v>
       </c>
@@ -2490,10 +2449,10 @@
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="7">
         <v>9</v>
       </c>
-      <c r="E28" s="6"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="2">
         <v>6</v>
       </c>
@@ -2503,10 +2462,10 @@
       <c r="H28" s="2">
         <v>6</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="7">
         <v>22</v>
       </c>
-      <c r="J28" s="6"/>
+      <c r="J28" s="7"/>
       <c r="K28" s="2">
         <v>5</v>
       </c>
@@ -2560,10 +2519,10 @@
       <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="7">
         <v>240</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="7"/>
       <c r="F29" s="2">
         <v>95</v>
       </c>
@@ -2573,10 +2532,10 @@
       <c r="H29" s="2">
         <v>50</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="7">
         <v>662</v>
       </c>
-      <c r="J29" s="6"/>
+      <c r="J29" s="7"/>
       <c r="K29" s="2">
         <v>82</v>
       </c>
@@ -2630,10 +2589,10 @@
       <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="7">
         <v>53</v>
       </c>
-      <c r="E30" s="6"/>
+      <c r="E30" s="7"/>
       <c r="F30" s="2">
         <v>36</v>
       </c>
@@ -2643,10 +2602,10 @@
       <c r="H30" s="2">
         <v>33</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="7">
         <v>114</v>
       </c>
-      <c r="J30" s="6"/>
+      <c r="J30" s="7"/>
       <c r="K30" s="2">
         <v>39</v>
       </c>
@@ -2700,10 +2659,10 @@
       <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="7">
         <v>32</v>
       </c>
-      <c r="E31" s="6"/>
+      <c r="E31" s="7"/>
       <c r="F31" s="2">
         <v>39</v>
       </c>
@@ -2713,10 +2672,10 @@
       <c r="H31" s="2">
         <v>18</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="7">
         <v>97</v>
       </c>
-      <c r="J31" s="6"/>
+      <c r="J31" s="7"/>
       <c r="K31" s="2">
         <v>31</v>
       </c>
@@ -2770,10 +2729,10 @@
       <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="7">
         <v>21</v>
       </c>
-      <c r="E32" s="6"/>
+      <c r="E32" s="7"/>
       <c r="F32" s="2">
         <v>24</v>
       </c>
@@ -2783,10 +2742,10 @@
       <c r="H32" s="2">
         <v>14</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="7">
         <v>50</v>
       </c>
-      <c r="J32" s="6"/>
+      <c r="J32" s="7"/>
       <c r="K32" s="2">
         <v>23</v>
       </c>
@@ -2840,10 +2799,10 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="7">
         <v>26</v>
       </c>
-      <c r="E33" s="6"/>
+      <c r="E33" s="7"/>
       <c r="F33" s="2">
         <v>25</v>
       </c>
@@ -2853,10 +2812,10 @@
       <c r="H33" s="2">
         <v>25</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="7">
         <v>69</v>
       </c>
-      <c r="J33" s="6"/>
+      <c r="J33" s="7"/>
       <c r="K33" s="2">
         <v>19</v>
       </c>
@@ -2910,10 +2869,10 @@
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="7">
         <v>49</v>
       </c>
-      <c r="E34" s="6"/>
+      <c r="E34" s="7"/>
       <c r="F34" s="2">
         <v>27</v>
       </c>
@@ -2923,10 +2882,10 @@
       <c r="H34" s="2">
         <v>25</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="7">
         <v>38</v>
       </c>
-      <c r="J34" s="6"/>
+      <c r="J34" s="7"/>
       <c r="K34" s="2">
         <v>22</v>
       </c>
@@ -2980,10 +2939,10 @@
       <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="7">
         <v>329</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="E35" s="7"/>
       <c r="F35" s="2">
         <v>138</v>
       </c>
@@ -2993,10 +2952,10 @@
       <c r="H35" s="2">
         <v>71</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="7">
         <v>341</v>
       </c>
-      <c r="J35" s="6"/>
+      <c r="J35" s="7"/>
       <c r="K35" s="2">
         <v>95</v>
       </c>
@@ -3050,10 +3009,10 @@
       <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="7">
         <v>42</v>
       </c>
-      <c r="E36" s="6"/>
+      <c r="E36" s="7"/>
       <c r="F36" s="2">
         <v>36</v>
       </c>
@@ -3063,10 +3022,10 @@
       <c r="H36" s="2">
         <v>18</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="7">
         <v>58</v>
       </c>
-      <c r="J36" s="6"/>
+      <c r="J36" s="7"/>
       <c r="K36" s="2">
         <v>27</v>
       </c>
@@ -3120,10 +3079,10 @@
       <c r="C37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="7">
         <v>58</v>
       </c>
-      <c r="E37" s="6"/>
+      <c r="E37" s="7"/>
       <c r="F37" s="2">
         <v>63</v>
       </c>
@@ -3133,10 +3092,10 @@
       <c r="H37" s="2">
         <v>37</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="7">
         <v>101</v>
       </c>
-      <c r="J37" s="6"/>
+      <c r="J37" s="7"/>
       <c r="K37" s="2">
         <v>58</v>
       </c>
@@ -3190,10 +3149,10 @@
       <c r="C38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="7">
         <v>195</v>
       </c>
-      <c r="E38" s="6"/>
+      <c r="E38" s="7"/>
       <c r="F38" s="2">
         <v>160</v>
       </c>
@@ -3203,10 +3162,10 @@
       <c r="H38" s="2">
         <v>160</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="7">
         <v>139</v>
       </c>
-      <c r="J38" s="6"/>
+      <c r="J38" s="7"/>
       <c r="K38" s="2">
         <v>108</v>
       </c>
@@ -3260,10 +3219,10 @@
       <c r="C39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="7">
         <v>71</v>
       </c>
-      <c r="E39" s="6"/>
+      <c r="E39" s="7"/>
       <c r="F39" s="2">
         <v>52</v>
       </c>
@@ -3273,10 +3232,10 @@
       <c r="H39" s="2">
         <v>58</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="7">
         <v>62</v>
       </c>
-      <c r="J39" s="6"/>
+      <c r="J39" s="7"/>
       <c r="K39" s="2">
         <v>60</v>
       </c>
@@ -3330,10 +3289,10 @@
       <c r="C40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="7">
         <v>88</v>
       </c>
-      <c r="E40" s="6"/>
+      <c r="E40" s="7"/>
       <c r="F40" s="2">
         <v>39</v>
       </c>
@@ -3343,10 +3302,10 @@
       <c r="H40" s="2">
         <v>30</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="7">
         <v>190</v>
       </c>
-      <c r="J40" s="6"/>
+      <c r="J40" s="7"/>
       <c r="K40" s="2">
         <v>38</v>
       </c>
@@ -3400,10 +3359,10 @@
       <c r="C41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="7">
         <v>214</v>
       </c>
-      <c r="E41" s="6"/>
+      <c r="E41" s="7"/>
       <c r="F41" s="2">
         <v>73</v>
       </c>
@@ -3413,10 +3372,10 @@
       <c r="H41" s="2">
         <v>41</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="7">
         <v>143</v>
       </c>
-      <c r="J41" s="6"/>
+      <c r="J41" s="7"/>
       <c r="K41" s="2">
         <v>88</v>
       </c>
@@ -3470,10 +3429,10 @@
       <c r="C42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="7">
         <v>31</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="7"/>
       <c r="F42" s="2">
         <v>17</v>
       </c>
@@ -3483,10 +3442,10 @@
       <c r="H42" s="2">
         <v>16</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I42" s="7">
         <v>68</v>
       </c>
-      <c r="J42" s="6"/>
+      <c r="J42" s="7"/>
       <c r="K42" s="2">
         <v>20</v>
       </c>
@@ -3540,10 +3499,10 @@
       <c r="C43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="7">
         <v>39</v>
       </c>
-      <c r="E43" s="6"/>
+      <c r="E43" s="7"/>
       <c r="F43" s="2">
         <v>61</v>
       </c>
@@ -3553,10 +3512,10 @@
       <c r="H43" s="2">
         <v>29</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="7">
         <v>206</v>
       </c>
-      <c r="J43" s="6"/>
+      <c r="J43" s="7"/>
       <c r="K43" s="2">
         <v>46</v>
       </c>
@@ -3610,8 +3569,8 @@
       <c r="C44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
       <c r="F44" s="2">
         <v>7</v>
       </c>
@@ -3619,8 +3578,8 @@
       <c r="H44" s="2">
         <v>9</v>
       </c>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2">
         <v>3</v>
@@ -3652,15 +3611,15 @@
       <c r="C45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2">
         <v>13</v>
       </c>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -3690,10 +3649,10 @@
       <c r="C46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="7">
         <v>90</v>
       </c>
-      <c r="E46" s="6"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="2">
         <v>60</v>
       </c>
@@ -3703,10 +3662,10 @@
       <c r="H46" s="2">
         <v>61</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="7">
         <v>89</v>
       </c>
-      <c r="J46" s="6"/>
+      <c r="J46" s="7"/>
       <c r="K46" s="2">
         <v>83</v>
       </c>
@@ -3752,248 +3711,208 @@
     </row>
     <row r="47" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="9">
-        <v>3324</v>
-      </c>
-      <c r="E47" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
       <c r="F47" s="2">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="9">
-        <v>2</v>
-      </c>
-      <c r="J47" s="10"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="P47" s="2">
+        <v>3</v>
+      </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
+      <c r="T47" s="2">
+        <v>1</v>
+      </c>
       <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="3"/>
+      <c r="V47" s="2">
+        <v>9</v>
+      </c>
+      <c r="W47" s="2">
+        <v>1</v>
+      </c>
+      <c r="X47" s="3">
+        <v>16</v>
+      </c>
     </row>
     <row r="48" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="2">
-        <v>2</v>
-      </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2">
-        <v>1</v>
-      </c>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2">
-        <v>9</v>
-      </c>
-      <c r="W48" s="2">
-        <v>1</v>
+      <c r="A48" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="8">
+        <v>3309</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="3">
+        <v>2555</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4067</v>
+      </c>
+      <c r="H48" s="3">
+        <v>2018</v>
+      </c>
+      <c r="I48" s="8">
+        <v>4656</v>
+      </c>
+      <c r="J48" s="8"/>
+      <c r="K48" s="3">
+        <v>2250</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1770</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1910</v>
+      </c>
+      <c r="N48" s="3">
+        <v>3956</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1630</v>
+      </c>
+      <c r="P48" s="3">
+        <v>6274</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>2775</v>
+      </c>
+      <c r="R48" s="3">
+        <v>1405</v>
+      </c>
+      <c r="S48" s="3">
+        <v>2812</v>
+      </c>
+      <c r="T48" s="3">
+        <v>2160</v>
+      </c>
+      <c r="U48" s="3">
+        <v>3073</v>
+      </c>
+      <c r="V48" s="3">
+        <v>2464</v>
+      </c>
+      <c r="W48" s="3">
+        <v>2732</v>
       </c>
       <c r="X48" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="5">
-        <v>3309</v>
-      </c>
-      <c r="E49" s="5"/>
-      <c r="F49" s="3">
-        <v>2555</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4067</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2018</v>
-      </c>
-      <c r="I49" s="5">
-        <v>4656</v>
-      </c>
-      <c r="J49" s="5"/>
-      <c r="K49" s="3">
-        <v>2250</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1770</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1910</v>
-      </c>
-      <c r="N49" s="3">
-        <v>3956</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1630</v>
-      </c>
-      <c r="P49" s="3">
-        <v>6274</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>2775</v>
-      </c>
-      <c r="R49" s="3">
-        <v>1405</v>
-      </c>
-      <c r="S49" s="3">
-        <v>2812</v>
-      </c>
-      <c r="T49" s="3">
-        <v>2160</v>
-      </c>
-      <c r="U49" s="3">
-        <v>3073</v>
-      </c>
-      <c r="V49" s="3">
-        <v>2464</v>
-      </c>
-      <c r="W49" s="3">
-        <v>2732</v>
-      </c>
-      <c r="X49" s="3">
         <v>51816</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
+  <mergeCells count="92">
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>

--- a/Отчеты/OLAP по продажам ОБЩИЙ 02.12.2022 08.09.48.xlsx
+++ b/Отчеты/OLAP по продажам ОБЩИЙ 02.12.2022 08.09.48.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProject\Project_Order\Отчеты\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1359586-29DC-4F70-B4E0-46CFCE6631EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49BEB23-E5BA-463E-8392-6BEACF752B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
   <si>
     <t>OLAP отчет для Пекарни</t>
   </si>
@@ -353,6 +353,15 @@
   </si>
   <si>
     <t>Круассан мини микс шоколад</t>
+  </si>
+  <si>
+    <t>023165</t>
+  </si>
+  <si>
+    <t>фывафыафыафы</t>
+  </si>
+  <si>
+    <t>фыфыафыа</t>
   </si>
 </sst>
 </file>
@@ -468,20 +477,20 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,10 +776,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X48"/>
+  <dimension ref="A1:X49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -786,43 +795,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
@@ -839,10 +848,10 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,10 +861,10 @@
       <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="1" t="s">
         <v>12</v>
       </c>
@@ -909,10 +918,10 @@
       <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>58</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="2">
         <v>142</v>
       </c>
@@ -922,10 +931,10 @@
       <c r="H6" s="2">
         <v>106</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>145</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="2">
         <v>112</v>
       </c>
@@ -979,10 +988,10 @@
       <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>135</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="2">
         <v>130</v>
       </c>
@@ -992,10 +1001,10 @@
       <c r="H7" s="2">
         <v>82</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>196</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="6"/>
       <c r="K7" s="2">
         <v>84</v>
       </c>
@@ -1049,10 +1058,10 @@
       <c r="C8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>148</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="2">
         <v>133</v>
       </c>
@@ -1062,10 +1071,10 @@
       <c r="H8" s="2">
         <v>143</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>183</v>
       </c>
-      <c r="J8" s="7"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="2">
         <v>113</v>
       </c>
@@ -1119,10 +1128,10 @@
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>47</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="2">
         <v>42</v>
       </c>
@@ -1132,10 +1141,10 @@
       <c r="H9" s="2">
         <v>32</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>119</v>
       </c>
-      <c r="J9" s="7"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="2">
         <v>35</v>
       </c>
@@ -1189,10 +1198,10 @@
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>122</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="2">
         <v>64</v>
       </c>
@@ -1202,10 +1211,10 @@
       <c r="H10" s="2">
         <v>36</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>191</v>
       </c>
-      <c r="J10" s="7"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="2">
         <v>45</v>
       </c>
@@ -1259,10 +1268,10 @@
       <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>92</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="2">
         <v>115</v>
       </c>
@@ -1272,10 +1281,10 @@
       <c r="H11" s="2">
         <v>71</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>141</v>
       </c>
-      <c r="J11" s="7"/>
+      <c r="J11" s="6"/>
       <c r="K11" s="2">
         <v>74</v>
       </c>
@@ -1329,10 +1338,10 @@
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>116</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="2">
         <v>78</v>
       </c>
@@ -1342,10 +1351,10 @@
       <c r="H12" s="2">
         <v>61</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>113</v>
       </c>
-      <c r="J12" s="7"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="2">
         <v>104</v>
       </c>
@@ -1399,10 +1408,10 @@
       <c r="C13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>13</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="2">
         <v>8</v>
       </c>
@@ -1412,10 +1421,10 @@
       <c r="H13" s="2">
         <v>5</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>10</v>
       </c>
-      <c r="J13" s="7"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="2">
         <v>13</v>
       </c>
@@ -1469,10 +1478,10 @@
       <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>87</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="2">
         <v>191</v>
       </c>
@@ -1482,10 +1491,10 @@
       <c r="H14" s="2">
         <v>125</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>110</v>
       </c>
-      <c r="J14" s="7"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="2">
         <v>160</v>
       </c>
@@ -1539,10 +1548,10 @@
       <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>20</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="2">
         <v>17</v>
       </c>
@@ -1552,10 +1561,10 @@
       <c r="H15" s="2">
         <v>28</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>30</v>
       </c>
-      <c r="J15" s="7"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="2">
         <v>21</v>
       </c>
@@ -1609,10 +1618,10 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>11</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="2">
         <v>23</v>
       </c>
@@ -1622,10 +1631,10 @@
       <c r="H16" s="2">
         <v>17</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>22</v>
       </c>
-      <c r="J16" s="7"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="2">
         <v>9</v>
       </c>
@@ -1679,10 +1688,10 @@
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>20</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="2">
         <v>39</v>
       </c>
@@ -1692,10 +1701,10 @@
       <c r="H17" s="2">
         <v>43</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>34</v>
       </c>
-      <c r="J17" s="7"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="2">
         <v>41</v>
       </c>
@@ -1749,10 +1758,10 @@
       <c r="C18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>63</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="2">
         <v>78</v>
       </c>
@@ -1762,10 +1771,10 @@
       <c r="H18" s="2">
         <v>47</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>67</v>
       </c>
-      <c r="J18" s="7"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="2">
         <v>54</v>
       </c>
@@ -1819,10 +1828,10 @@
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>188</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="2">
         <v>130</v>
       </c>
@@ -1832,10 +1841,10 @@
       <c r="H19" s="2">
         <v>159</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>181</v>
       </c>
-      <c r="J19" s="7"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="2">
         <v>167</v>
       </c>
@@ -1889,10 +1898,10 @@
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>5</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="2">
         <v>7</v>
       </c>
@@ -1902,10 +1911,10 @@
       <c r="H20" s="2">
         <v>10</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>6</v>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="2">
         <v>7</v>
       </c>
@@ -1959,10 +1968,10 @@
       <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>8</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="2">
         <v>28</v>
       </c>
@@ -1972,10 +1981,10 @@
       <c r="H21" s="2">
         <v>28</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>19</v>
       </c>
-      <c r="J21" s="7"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="2">
         <v>23</v>
       </c>
@@ -2029,10 +2038,10 @@
       <c r="C22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>10</v>
       </c>
-      <c r="E22" s="7"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="2">
         <v>16</v>
       </c>
@@ -2042,10 +2051,10 @@
       <c r="H22" s="2">
         <v>11</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>18</v>
       </c>
-      <c r="J22" s="7"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="2">
         <v>6</v>
       </c>
@@ -2099,10 +2108,10 @@
       <c r="C23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>70</v>
       </c>
-      <c r="E23" s="7"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="2">
         <v>29</v>
       </c>
@@ -2112,10 +2121,10 @@
       <c r="H23" s="2">
         <v>25</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>163</v>
       </c>
-      <c r="J23" s="7"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="2">
         <v>26</v>
       </c>
@@ -2169,10 +2178,10 @@
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>335</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="2">
         <v>234</v>
       </c>
@@ -2182,10 +2191,10 @@
       <c r="H24" s="2">
         <v>190</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>263</v>
       </c>
-      <c r="J24" s="7"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="2">
         <v>191</v>
       </c>
@@ -2239,10 +2248,10 @@
       <c r="C25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>76</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="2">
         <v>58</v>
       </c>
@@ -2252,10 +2261,10 @@
       <c r="H25" s="2">
         <v>58</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>107</v>
       </c>
-      <c r="J25" s="7"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="2">
         <v>58</v>
       </c>
@@ -2309,10 +2318,10 @@
       <c r="C26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>40</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="2">
         <v>15</v>
       </c>
@@ -2322,10 +2331,10 @@
       <c r="H26" s="2">
         <v>10</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>33</v>
       </c>
-      <c r="J26" s="7"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="2">
         <v>14</v>
       </c>
@@ -2379,10 +2388,10 @@
       <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>58</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="2">
         <v>18</v>
       </c>
@@ -2392,10 +2401,10 @@
       <c r="H27" s="2">
         <v>17</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>56</v>
       </c>
-      <c r="J27" s="7"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="2">
         <v>49</v>
       </c>
@@ -2449,10 +2458,10 @@
       <c r="C28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>9</v>
       </c>
-      <c r="E28" s="7"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="2">
         <v>6</v>
       </c>
@@ -2462,10 +2471,10 @@
       <c r="H28" s="2">
         <v>6</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>22</v>
       </c>
-      <c r="J28" s="7"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="2">
         <v>5</v>
       </c>
@@ -2519,10 +2528,10 @@
       <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>240</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="2">
         <v>95</v>
       </c>
@@ -2532,10 +2541,10 @@
       <c r="H29" s="2">
         <v>50</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>662</v>
       </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="2">
         <v>82</v>
       </c>
@@ -2589,10 +2598,10 @@
       <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>53</v>
       </c>
-      <c r="E30" s="7"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="2">
         <v>36</v>
       </c>
@@ -2602,10 +2611,10 @@
       <c r="H30" s="2">
         <v>33</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>114</v>
       </c>
-      <c r="J30" s="7"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="2">
         <v>39</v>
       </c>
@@ -2659,10 +2668,10 @@
       <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>32</v>
       </c>
-      <c r="E31" s="7"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="2">
         <v>39</v>
       </c>
@@ -2672,10 +2681,10 @@
       <c r="H31" s="2">
         <v>18</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>97</v>
       </c>
-      <c r="J31" s="7"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="2">
         <v>31</v>
       </c>
@@ -2729,10 +2738,10 @@
       <c r="C32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>21</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="6"/>
       <c r="F32" s="2">
         <v>24</v>
       </c>
@@ -2742,10 +2751,10 @@
       <c r="H32" s="2">
         <v>14</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>50</v>
       </c>
-      <c r="J32" s="7"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="2">
         <v>23</v>
       </c>
@@ -2799,10 +2808,10 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>26</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="6"/>
       <c r="F33" s="2">
         <v>25</v>
       </c>
@@ -2812,10 +2821,10 @@
       <c r="H33" s="2">
         <v>25</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>69</v>
       </c>
-      <c r="J33" s="7"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="2">
         <v>19</v>
       </c>
@@ -2869,10 +2878,10 @@
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>49</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="6"/>
       <c r="F34" s="2">
         <v>27</v>
       </c>
@@ -2882,10 +2891,10 @@
       <c r="H34" s="2">
         <v>25</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>38</v>
       </c>
-      <c r="J34" s="7"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="2">
         <v>22</v>
       </c>
@@ -2939,10 +2948,10 @@
       <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>329</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="6"/>
       <c r="F35" s="2">
         <v>138</v>
       </c>
@@ -2952,10 +2961,10 @@
       <c r="H35" s="2">
         <v>71</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>341</v>
       </c>
-      <c r="J35" s="7"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="2">
         <v>95</v>
       </c>
@@ -3009,10 +3018,10 @@
       <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>42</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="6"/>
       <c r="F36" s="2">
         <v>36</v>
       </c>
@@ -3022,10 +3031,10 @@
       <c r="H36" s="2">
         <v>18</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>58</v>
       </c>
-      <c r="J36" s="7"/>
+      <c r="J36" s="6"/>
       <c r="K36" s="2">
         <v>27</v>
       </c>
@@ -3079,10 +3088,10 @@
       <c r="C37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>58</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="6"/>
       <c r="F37" s="2">
         <v>63</v>
       </c>
@@ -3092,10 +3101,10 @@
       <c r="H37" s="2">
         <v>37</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>101</v>
       </c>
-      <c r="J37" s="7"/>
+      <c r="J37" s="6"/>
       <c r="K37" s="2">
         <v>58</v>
       </c>
@@ -3149,10 +3158,10 @@
       <c r="C38" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>195</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="6"/>
       <c r="F38" s="2">
         <v>160</v>
       </c>
@@ -3162,10 +3171,10 @@
       <c r="H38" s="2">
         <v>160</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>139</v>
       </c>
-      <c r="J38" s="7"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="2">
         <v>108</v>
       </c>
@@ -3219,10 +3228,10 @@
       <c r="C39" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>71</v>
       </c>
-      <c r="E39" s="7"/>
+      <c r="E39" s="6"/>
       <c r="F39" s="2">
         <v>52</v>
       </c>
@@ -3232,10 +3241,10 @@
       <c r="H39" s="2">
         <v>58</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>62</v>
       </c>
-      <c r="J39" s="7"/>
+      <c r="J39" s="6"/>
       <c r="K39" s="2">
         <v>60</v>
       </c>
@@ -3289,10 +3298,10 @@
       <c r="C40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>88</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="E40" s="6"/>
       <c r="F40" s="2">
         <v>39</v>
       </c>
@@ -3302,10 +3311,10 @@
       <c r="H40" s="2">
         <v>30</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>190</v>
       </c>
-      <c r="J40" s="7"/>
+      <c r="J40" s="6"/>
       <c r="K40" s="2">
         <v>38</v>
       </c>
@@ -3359,10 +3368,10 @@
       <c r="C41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>214</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="6"/>
       <c r="F41" s="2">
         <v>73</v>
       </c>
@@ -3372,10 +3381,10 @@
       <c r="H41" s="2">
         <v>41</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>143</v>
       </c>
-      <c r="J41" s="7"/>
+      <c r="J41" s="6"/>
       <c r="K41" s="2">
         <v>88</v>
       </c>
@@ -3429,10 +3438,10 @@
       <c r="C42" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>31</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="6"/>
       <c r="F42" s="2">
         <v>17</v>
       </c>
@@ -3442,10 +3451,10 @@
       <c r="H42" s="2">
         <v>16</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>68</v>
       </c>
-      <c r="J42" s="7"/>
+      <c r="J42" s="6"/>
       <c r="K42" s="2">
         <v>20</v>
       </c>
@@ -3499,10 +3508,10 @@
       <c r="C43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>39</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="2">
         <v>61</v>
       </c>
@@ -3512,10 +3521,10 @@
       <c r="H43" s="2">
         <v>29</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>206</v>
       </c>
-      <c r="J43" s="7"/>
+      <c r="J43" s="6"/>
       <c r="K43" s="2">
         <v>46</v>
       </c>
@@ -3569,8 +3578,8 @@
       <c r="C44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="2">
         <v>7</v>
       </c>
@@ -3578,8 +3587,8 @@
       <c r="H44" s="2">
         <v>9</v>
       </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2">
         <v>3</v>
@@ -3611,15 +3620,15 @@
       <c r="C45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2">
         <v>13</v>
       </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -3649,10 +3658,10 @@
       <c r="C46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>90</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="6"/>
       <c r="F46" s="2">
         <v>60</v>
       </c>
@@ -3662,10 +3671,10 @@
       <c r="H46" s="2">
         <v>61</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>89</v>
       </c>
-      <c r="J46" s="7"/>
+      <c r="J46" s="6"/>
       <c r="K46" s="2">
         <v>83</v>
       </c>
@@ -3719,15 +3728,15 @@
       <c r="C47" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
       <c r="F47" s="2">
         <v>2</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -3754,165 +3763,237 @@
       </c>
     </row>
     <row r="48" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" s="6">
+        <v>90</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="2">
+        <v>60</v>
+      </c>
+      <c r="G48" s="2">
+        <v>173</v>
+      </c>
+      <c r="H48" s="2">
+        <v>61</v>
+      </c>
+      <c r="I48" s="6">
+        <v>89</v>
+      </c>
+      <c r="J48" s="6"/>
+      <c r="K48" s="2">
+        <v>83</v>
+      </c>
+      <c r="L48" s="2">
+        <v>80</v>
+      </c>
+      <c r="M48" s="2">
+        <v>44</v>
+      </c>
+      <c r="N48" s="2">
+        <v>147</v>
+      </c>
+      <c r="O48" s="2">
+        <v>73</v>
+      </c>
+      <c r="P48" s="2">
+        <v>148</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>69</v>
+      </c>
+      <c r="R48" s="2">
+        <v>50</v>
+      </c>
+      <c r="S48" s="2">
+        <v>70</v>
+      </c>
+      <c r="T48" s="2">
+        <v>60</v>
+      </c>
+      <c r="U48" s="2">
+        <v>109</v>
+      </c>
+      <c r="V48" s="2">
+        <v>64</v>
+      </c>
+      <c r="W48" s="2">
+        <v>103</v>
+      </c>
+      <c r="X48" s="3">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="8">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5">
         <v>3309</v>
       </c>
-      <c r="E48" s="8"/>
-      <c r="F48" s="3">
+      <c r="E49" s="5"/>
+      <c r="F49" s="3">
         <v>2555</v>
       </c>
-      <c r="G48" s="3">
+      <c r="G49" s="3">
         <v>4067</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H49" s="3">
         <v>2018</v>
       </c>
-      <c r="I48" s="8">
+      <c r="I49" s="5">
         <v>4656</v>
       </c>
-      <c r="J48" s="8"/>
-      <c r="K48" s="3">
+      <c r="J49" s="5"/>
+      <c r="K49" s="3">
         <v>2250</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L49" s="3">
         <v>1770</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M49" s="3">
         <v>1910</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N49" s="3">
         <v>3956</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O49" s="3">
         <v>1630</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P49" s="3">
         <v>6274</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q49" s="3">
         <v>2775</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R49" s="3">
         <v>1405</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S49" s="3">
         <v>2812</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T49" s="3">
         <v>2160</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U49" s="3">
         <v>3073</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V49" s="3">
         <v>2464</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W49" s="3">
         <v>2732</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X49" s="3">
         <v>51816</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="92">
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="I48:J48"/>
+  <mergeCells count="94">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="I49:J49"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="I47:J47"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="I48:J48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="landscape"/>
